--- a/static/travel_authority_template.xlsx
+++ b/static/travel_authority_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Drix Office Docs\ProgramX\warm-hollows-62602\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\warm-hollows-62602\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7402B49-08BC-4C47-B158-AEAAFB3E2138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98000C2C-BB32-4181-B27C-A740F0F03688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <r>
       <rPr>
@@ -164,14 +164,27 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">This is to certify that the trip of the requesting employee satisfies all the minimum conditions for authorized official travel and that alternatives to travel are insufficient for purpose stated herein.
+    <t xml:space="preserve">I hereby attest that the information in this form and in the supporting documents attached hereto are true and correct.
+</t>
+  </si>
+  <si>
+    <t>Name and Signature of Employee</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">APPROVED:
 </t>
     </r>
     <r>
@@ -182,7 +195,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">JUN-NILOU D. DULFO, PhD
+      <t xml:space="preserve">MARGARITO A. CADAYONA Jr. PhD, CESO VI
 </t>
     </r>
     <r>
@@ -191,8 +204,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">OIC – Assistant Schools Division Superintendent
-Name and Signature of Recommending Authority                                                       </t>
+      <t xml:space="preserve">         OIC – Schools Division Superintendent                                                                    </t>
     </r>
     <r>
       <rPr>
@@ -205,20 +217,24 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">I hereby attest that the information in this form and in the supporting documents attached hereto are true and correct.
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">This is to certify that the trip of the requesting employee satisfies all the minimum conditions for authorized official travel and that alternatives to travel are insufficient for purpose stated herein.
 </t>
-  </si>
-  <si>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-APPROVED:
-</t>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">               </t>
     </r>
     <r>
       <rPr>
@@ -228,7 +244,7 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">MARGARITO A. CADAYONA Jr. PhD, CESO VI
+      <t xml:space="preserve">JUN-NILOU D. DULFO, PhD
 </t>
     </r>
     <r>
@@ -237,30 +253,31 @@
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">OIC – Schools Division Superintendent                                                                             </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
+      <t>OIC – Assistant Schools Division Superintendent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <rFont val="Cambria"/>
         <family val="1"/>
       </rPr>
       <t>Date</t>
     </r>
-  </si>
-  <si>
-    <t>Name and Signature of Employee</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -337,6 +354,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -514,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -575,7 +602,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -596,6 +629,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="17"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -605,23 +641,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="17"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,10 +674,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2597213</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>998328</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1228090</xdr:rowOff>
+      <xdr:rowOff>1116417</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="828675" cy="8890"/>
     <xdr:grpSp>
@@ -663,7 +693,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3409137" y="6975935"/>
+          <a:off x="4532431" y="6864262"/>
           <a:ext cx="828675" cy="8890"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="828675" cy="8890"/>
@@ -762,10 +792,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2578163</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>972052</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>948055</xdr:rowOff>
+      <xdr:rowOff>816675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="828675" cy="8890"/>
     <xdr:grpSp>
@@ -781,7 +811,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3409137" y="8108227"/>
+          <a:off x="4506155" y="7976847"/>
           <a:ext cx="828675" cy="8890"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="828675" cy="8890"/>
@@ -1207,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1230,13 +1260,13 @@
       <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1261,22 +1291,22 @@
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -1305,7 +1335,7 @@
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="10"/>
@@ -1325,22 +1355,22 @@
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
+      <c r="A12" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1353,11 +1383,13 @@
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="6"/>
       <c r="F14" s="2"/>
     </row>
@@ -1370,27 +1402,27 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
+      <c r="A16" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
+      <c r="A17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A12:E12"/>
@@ -1398,6 +1430,7 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
